--- a/example/foo.xlsx
+++ b/example/foo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Development/plotschedule/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783A0A3A-60EF-0E4A-9B67-B5C6C68B812B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DBBD70-156E-FE43-9380-50CDAC52ADBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
+    <sheet name="bar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>begin</t>
   </si>
@@ -74,12 +75,21 @@
   </si>
   <si>
     <t>Baz</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -914,10 +924,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1013,4 +1025,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A948D5E-7AC3-3E45-8EED-8A3378AB3F81}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>